--- a/indicators/rename-folder-after-your-indicator/fill_in_metadata_here_and_rename_the_file.xlsx
+++ b/indicators/rename-folder-after-your-indicator/fill_in_metadata_here_and_rename_the_file.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Github\ECindicators\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Github\ECindicators\indicators\rename-folder-after-your-indicator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A17E793-5E55-4691-9D06-4C3BD0518B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34ADE931-FBEB-4386-85E5-E639DF069509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5774BAF6-AFFD-43CB-8AE5-DFBA2C21B702}"/>
+    <workbookView xWindow="4680" yWindow="4680" windowWidth="38700" windowHeight="15315" xr2:uid="{5774BAF6-AFFD-43CB-8AE5-DFBA2C21B702}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="metadata" sheetId="1" r:id="rId1"/>
+    <sheet name="lookup" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>indicatorID</t>
   </si>
@@ -57,13 +58,61 @@
   </si>
   <si>
     <t>yearLastUpdate</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>NO_NDVI_001_002</t>
+  </si>
+  <si>
+    <t>NDVI Forest</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>A1 - Physical State Characteristics</t>
+  </si>
+  <si>
+    <t>B1 - Compositional State Characteristics</t>
+  </si>
+  <si>
+    <t>B2 - Structural State Characteristics</t>
+  </si>
+  <si>
+    <t>B3 - Functional State Characteristics</t>
+  </si>
+  <si>
+    <t>C1 - Landscape and Seascape Characteristics</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3897/oneeco.6.e58218</t>
+  </si>
+  <si>
+    <t>Yera when the documentation was first submitted to ecRxiv</t>
+  </si>
+  <si>
+    <t>Current year or year of last update to ecRxiv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,16 +120,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -88,14 +157,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -408,50 +499,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78FF33B-C37D-487F-A5F6-37AB2202A4CF}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="55.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{43A0799D-237F-4ECC-8A5C-DEF79B78D1E3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{36CDCA7B-840E-422F-A06F-01BCE2D2123C}">
+          <x14:formula1>
+            <xm:f>lookup!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38FBD06A-F7D1-4345-BCDF-E89F4B8A4AD5}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="32.81640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/indicators/rename-folder-after-your-indicator/fill_in_metadata_here_and_rename_the_file.xlsx
+++ b/indicators/rename-folder-after-your-indicator/fill_in_metadata_here_and_rename_the_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Github\ECindicators\indicators\rename-folder-after-your-indicator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34ADE931-FBEB-4386-85E5-E639DF069509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C319B9-8ABB-4379-86E5-54B5D8AE800F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4680" windowWidth="38700" windowHeight="15315" xr2:uid="{5774BAF6-AFFD-43CB-8AE5-DFBA2C21B702}"/>
+    <workbookView xWindow="10245" yWindow="1380" windowWidth="38700" windowHeight="15315" xr2:uid="{5774BAF6-AFFD-43CB-8AE5-DFBA2C21B702}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="181">
   <si>
     <t>indicatorID</t>
   </si>
@@ -102,17 +102,492 @@
     <t>https://doi.org/10.3897/oneeco.6.e58218</t>
   </si>
   <si>
-    <t>Yera when the documentation was first submitted to ecRxiv</t>
-  </si>
-  <si>
     <t>Current year or year of last update to ecRxiv</t>
+  </si>
+  <si>
+    <t>Realm</t>
+  </si>
+  <si>
+    <t>Biome</t>
+  </si>
+  <si>
+    <t>Ecosystem</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2305/IUCN.CH.2020.13.en</t>
+  </si>
+  <si>
+    <t>Terrestrial</t>
+  </si>
+  <si>
+    <t>Year when the documentation was first submitted to ecRxiv</t>
+  </si>
+  <si>
+    <t>EFG</t>
+  </si>
+  <si>
+    <t>F1.5 Season lowland rivers</t>
+  </si>
+  <si>
+    <t>F1.4 Season upland strems</t>
+  </si>
+  <si>
+    <t>F1.3 Freeze-thaw streams</t>
+  </si>
+  <si>
+    <t>F1.2 Perm lowland rivers</t>
+  </si>
+  <si>
+    <t>F1.1 Perm upland streams</t>
+  </si>
+  <si>
+    <t>F1.7 Large rivers</t>
+  </si>
+  <si>
+    <t>F1.6 Episodic arid rivers</t>
+  </si>
+  <si>
+    <t>F2.10 Subglacial lakes</t>
+  </si>
+  <si>
+    <t>F2.1 Large perm lakes</t>
+  </si>
+  <si>
+    <t>F2.2 Small perm lakes</t>
+  </si>
+  <si>
+    <t>F2.3 Seasonal lakes</t>
+  </si>
+  <si>
+    <t>F2.4 Freeze-thaw lakes</t>
+  </si>
+  <si>
+    <t>F2.5 Ephemeral lakes</t>
+  </si>
+  <si>
+    <t>F2.6 Perm salt lakes</t>
+  </si>
+  <si>
+    <t>F2.8 Artesian springs/oases</t>
+  </si>
+  <si>
+    <t>F2.9 Geothermal wetlands</t>
+  </si>
+  <si>
+    <t>F2.7 Ephem salt lakes</t>
+  </si>
+  <si>
+    <t>F3.2 Constructed lacustrine wetlands</t>
+  </si>
+  <si>
+    <t>F3.3 Rice paddies</t>
+  </si>
+  <si>
+    <t>F3.4 Freshwater aquafarms</t>
+  </si>
+  <si>
+    <t>F3.5 Canals and drains</t>
+  </si>
+  <si>
+    <t>F3.1 Large reservoirs</t>
+  </si>
+  <si>
+    <t>FM1.2 Riverine estuaries and bays</t>
+  </si>
+  <si>
+    <t>FM1.1 Deepwater coastal inlets</t>
+  </si>
+  <si>
+    <t>FM1.3 Closed/open inlets</t>
+  </si>
+  <si>
+    <t>M1.5 Marine animal forests</t>
+  </si>
+  <si>
+    <t>M1.9 Upwelling zones</t>
+  </si>
+  <si>
+    <t>M1.8 Subtidal mud plains</t>
+  </si>
+  <si>
+    <t>M1.7 Subtidal sand beds</t>
+  </si>
+  <si>
+    <t>M1.6 Subtidal rock reefs</t>
+  </si>
+  <si>
+    <t>M1.4 Shellfish beds and reefs</t>
+  </si>
+  <si>
+    <t>M1.3 Photic coral reefs</t>
+  </si>
+  <si>
+    <t>M1.2 Kelp forests</t>
+  </si>
+  <si>
+    <t>M1.1 Seagrass meadows</t>
+  </si>
+  <si>
+    <t>M1.10 Rhodolith beds</t>
+  </si>
+  <si>
+    <t>M2.2 Mesopelagic ocean waters</t>
+  </si>
+  <si>
+    <t>M2.5 Sea ice</t>
+  </si>
+  <si>
+    <t>M2.3 Bathypelagic ocean waters</t>
+  </si>
+  <si>
+    <t>M2.1 Epipelagic waters</t>
+  </si>
+  <si>
+    <t>M2.4 Abyssopelagic ocean waters</t>
+  </si>
+  <si>
+    <t>M3.4 Seamounts</t>
+  </si>
+  <si>
+    <t>M3.7 Chemosynthetic</t>
+  </si>
+  <si>
+    <t>M3.6 Hadal</t>
+  </si>
+  <si>
+    <t>M3.1 Continental slopes</t>
+  </si>
+  <si>
+    <t>M3.5 Deepwater biogenic beds</t>
+  </si>
+  <si>
+    <t>M3.2 Submarine canyons</t>
+  </si>
+  <si>
+    <t>M3.3 Abyssal plains</t>
+  </si>
+  <si>
+    <t>M4.1 Submerged artificial structures</t>
+  </si>
+  <si>
+    <t>M4.2 Marine aquafarms</t>
+  </si>
+  <si>
+    <t>MFT1.3 Coastal saltmarsh</t>
+  </si>
+  <si>
+    <t>MFT1.1 River deltas</t>
+  </si>
+  <si>
+    <t>MFT1.2 Intertidal forests</t>
+  </si>
+  <si>
+    <t>MT1.1 Rocky shores</t>
+  </si>
+  <si>
+    <t>MT1.3 Sandy shores</t>
+  </si>
+  <si>
+    <t>MT1.2 Muddy shores</t>
+  </si>
+  <si>
+    <t>MT1.4 Cobble shores</t>
+  </si>
+  <si>
+    <t>MT2.2 Seabird rookeries</t>
+  </si>
+  <si>
+    <t>MT2.1 Coastal shrublands and grasslands</t>
+  </si>
+  <si>
+    <t>MT3.1 Artificial shores</t>
+  </si>
+  <si>
+    <t>S1.1 Aerobic caves</t>
+  </si>
+  <si>
+    <t>S1.2 Endolithic systems</t>
+  </si>
+  <si>
+    <t>S2.1 Anthropogenic subterranean voids</t>
+  </si>
+  <si>
+    <t>SF1.1 Underground streams and pools</t>
+  </si>
+  <si>
+    <t>SF1.2 Groundwater ecosystems</t>
+  </si>
+  <si>
+    <t>SF2.2 Flooded mines</t>
+  </si>
+  <si>
+    <t>SF2.1 Water pipes and canals</t>
+  </si>
+  <si>
+    <t>SM1.2 Anchialine pools</t>
+  </si>
+  <si>
+    <t>SM1.1 Anchialine caves</t>
+  </si>
+  <si>
+    <t>SM1.3 Sea caves</t>
+  </si>
+  <si>
+    <t>T1.3 Trop montane rainforests</t>
+  </si>
+  <si>
+    <t>T1.4 Trop heath forests</t>
+  </si>
+  <si>
+    <t>T1.2 Trop dry forests</t>
+  </si>
+  <si>
+    <t>T1.1 Trop lowland rainforests</t>
+  </si>
+  <si>
+    <t>T2.1 Boreal/montane forests</t>
+  </si>
+  <si>
+    <t>T2.2 Deciduous temperate forests</t>
+  </si>
+  <si>
+    <t>T2.3 Oceanic temp rainforests</t>
+  </si>
+  <si>
+    <t>T2.4 Warm temp rainforests</t>
+  </si>
+  <si>
+    <t>T2.5 Temp pyric humid forests</t>
+  </si>
+  <si>
+    <t>T2.6 Temp sclerophyll forests</t>
+  </si>
+  <si>
+    <t>T3.1 Seas dry trop shrublands</t>
+  </si>
+  <si>
+    <t>T3.4 Rocky pavements</t>
+  </si>
+  <si>
+    <t>T3.2 Seas dry temp shrublands</t>
+  </si>
+  <si>
+    <t>T3.3 Cool temp heathlands</t>
+  </si>
+  <si>
+    <t>T4.4 Temp woodlands</t>
+  </si>
+  <si>
+    <t>T4.1 Trophic savannas</t>
+  </si>
+  <si>
+    <t>T4.2 Pyric tussock savannas</t>
+  </si>
+  <si>
+    <t>T4.3 Hummock savannas</t>
+  </si>
+  <si>
+    <t>T4.5 Temperate grasslands</t>
+  </si>
+  <si>
+    <t>T5.3 Sclerophyll hot deserts</t>
+  </si>
+  <si>
+    <t>T5.5 Hyper-arid deserts</t>
+  </si>
+  <si>
+    <t>T5.4 Cool temperate deserts</t>
+  </si>
+  <si>
+    <t>T5.2 Succulent/Thorny deserts</t>
+  </si>
+  <si>
+    <t>T5.1 Semi-desert steppe</t>
+  </si>
+  <si>
+    <t>T6.5 Trop alpine grassland</t>
+  </si>
+  <si>
+    <t>T6.1 Permanent snow</t>
+  </si>
+  <si>
+    <t>T6.2 Polar/alpine rock</t>
+  </si>
+  <si>
+    <t>T6.3 Polar tundra</t>
+  </si>
+  <si>
+    <t>T6.4 Temp alpine grasslands</t>
+  </si>
+  <si>
+    <t>T7.4 Urban and industrial</t>
+  </si>
+  <si>
+    <t>T7.1 Croplands</t>
+  </si>
+  <si>
+    <t>T7.2 Sown pastures and fields</t>
+  </si>
+  <si>
+    <t>T7.3 Plantations</t>
+  </si>
+  <si>
+    <t>T7.5 Semi-natural old fields</t>
+  </si>
+  <si>
+    <t>TF1.2 Temp forested wetlands</t>
+  </si>
+  <si>
+    <t>TF1.1 Trop flooded/peat forests</t>
+  </si>
+  <si>
+    <t>TF1.3 Permanent marshes</t>
+  </si>
+  <si>
+    <t>TF1.4 Seasonal floodplain marshes</t>
+  </si>
+  <si>
+    <t>TF1.5 Episodic arid floodplains</t>
+  </si>
+  <si>
+    <t>TF1.6 Boreal/temperate bogs</t>
+  </si>
+  <si>
+    <t>TF1.7 Boreal/temperate fens</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Ferrer-Paris, J. R. (2023, November 17). IUCN Global Ecosystem Typology: resources, code and data for mapping global ecosystems. Retrieved from osf.io/68syg. 
+https://doi.org/10.2305/IUCN.CH.2020.13.en</t>
+  </si>
+  <si>
+    <t>Subterranean</t>
+  </si>
+  <si>
+    <t>Subterranean-Freshwater</t>
+  </si>
+  <si>
+    <t>Subterranean-Marine</t>
+  </si>
+  <si>
+    <t>Freshwater</t>
+  </si>
+  <si>
+    <t>Marine</t>
+  </si>
+  <si>
+    <t>T1 Tropical-subtropical forests biome</t>
+  </si>
+  <si>
+    <t>T3 Shrublands and shrubby woodlands biome</t>
+  </si>
+  <si>
+    <t>T4 Savannas and grasslands biome</t>
+  </si>
+  <si>
+    <t>T5 Deserts and semi-deserts biome</t>
+  </si>
+  <si>
+    <t>T6 Polar-alpine (cryogenic) biome</t>
+  </si>
+  <si>
+    <t>T7 Intensive land-use biome</t>
+  </si>
+  <si>
+    <t>S1 Subterranean lithic biome</t>
+  </si>
+  <si>
+    <t>S2 Anthropogenic subterranean voids biome</t>
+  </si>
+  <si>
+    <t>SF1 Subterranean freshwaters biome</t>
+  </si>
+  <si>
+    <t>SF2 Anthropogenic subterranean freshwaters biome</t>
+  </si>
+  <si>
+    <t>SM1 Subterranean tidal biome</t>
+  </si>
+  <si>
+    <t>TF1 Palustrine wetlands biome</t>
+  </si>
+  <si>
+    <t>F1 Rivers and streams biome</t>
+  </si>
+  <si>
+    <t>F2 Lakes biome</t>
+  </si>
+  <si>
+    <t>F3 Artificial wetlands biome</t>
+  </si>
+  <si>
+    <t>FM1 Semi-confined transitional waters biome</t>
+  </si>
+  <si>
+    <t>M1 Marine shelf biome</t>
+  </si>
+  <si>
+    <t>M2 Pelagic ocean waters biome</t>
+  </si>
+  <si>
+    <t>M3 Deep sea floors biome</t>
+  </si>
+  <si>
+    <t>M4 Anthropogenic marine biome</t>
+  </si>
+  <si>
+    <t>MT1 Shorelines biome</t>
+  </si>
+  <si>
+    <t>MT2 Supralittoral coastal biome</t>
+  </si>
+  <si>
+    <t>MT3 Anthropogenic shorelines biome</t>
+  </si>
+  <si>
+    <t>MFT1 Brackish tidal biome</t>
+  </si>
+  <si>
+    <t>T2 Temperate-boreal forests and woodlands biome</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>Deprecated</t>
+  </si>
+  <si>
+    <t>Status or level of completeness for the indicator documentationComplete</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Version comment</t>
+  </si>
+  <si>
+    <t>001.001</t>
+  </si>
+  <si>
+    <t>Examples: First version; first draft; updated with 2024 data; similar to previsou version, but this time for ecosystem Y.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +610,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -149,7 +639,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -172,22 +662,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="4" xr:uid="{F7AA9E63-4D90-45C5-A442-BDA6231A80B3}"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Title 2" xfId="3" xr:uid="{1A5130EB-22EC-4108-BD35-4C4ED222E4BF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -499,31 +1024,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78FF33B-C37D-487F-A5F6-37AB2202A4CF}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.85546875" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="55.85546875" customWidth="1"/>
+    <col min="3" max="3" width="106.42578125" customWidth="1"/>
+    <col min="4" max="4" width="145" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -531,8 +1060,9 @@
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -540,8 +1070,9 @@
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -549,8 +1080,9 @@
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -558,8 +1090,9 @@
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -567,24 +1100,93 @@
       <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -594,12 +1196,36 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{36CDCA7B-840E-422F-A06F-01BCE2D2123C}">
           <x14:formula1>
             <xm:f>lookup!$A$2:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>B6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CE43F592-5FB8-438F-A25E-95662C73B5D1}">
+          <x14:formula1>
+            <xm:f>lookup!$D$2:$D$111</xm:f>
+          </x14:formula1>
+          <xm:sqref>B9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BF4D43D9-A982-4ECC-8F32-9627C08D5144}">
+          <x14:formula1>
+            <xm:f>lookup!$B$2:$B$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5BDA4539-C128-4D7B-B5D2-1E23C7E74359}">
+          <x14:formula1>
+            <xm:f>lookup!$C$2:$C$26</xm:f>
+          </x14:formula1>
+          <xm:sqref>B8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EF831FDA-2983-4D36-8B1C-B6481554BCE4}">
+          <x14:formula1>
+            <xm:f>lookup!$E$2:$E$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -609,47 +1235,705 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38FBD06A-F7D1-4345-BCDF-E89F4B8A4AD5}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="64" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/indicators/rename-folder-after-your-indicator/fill_in_metadata_here_and_rename_the_file.xlsx
+++ b/indicators/rename-folder-after-your-indicator/fill_in_metadata_here_and_rename_the_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Github\ECindicators\indicators\rename-folder-after-your-indicator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C319B9-8ABB-4379-86E5-54B5D8AE800F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BE52FD-2906-4094-9BD4-76FA1BA0D757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="1380" windowWidth="38700" windowHeight="15315" xr2:uid="{5774BAF6-AFFD-43CB-8AE5-DFBA2C21B702}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{5774BAF6-AFFD-43CB-8AE5-DFBA2C21B702}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="185">
   <si>
     <t>indicatorID</t>
   </si>
@@ -463,21 +463,6 @@
 https://doi.org/10.2305/IUCN.CH.2020.13.en</t>
   </si>
   <si>
-    <t>Subterranean</t>
-  </si>
-  <si>
-    <t>Subterranean-Freshwater</t>
-  </si>
-  <si>
-    <t>Subterranean-Marine</t>
-  </si>
-  <si>
-    <t>Freshwater</t>
-  </si>
-  <si>
-    <t>Marine</t>
-  </si>
-  <si>
     <t>T1 Tropical-subtropical forests biome</t>
   </si>
   <si>
@@ -581,6 +566,33 @@
   </si>
   <si>
     <t>Examples: First version; first draft; updated with 2024 data; similar to previsou version, but this time for ecosystem Y.</t>
+  </si>
+  <si>
+    <t>Terrestrial (T)</t>
+  </si>
+  <si>
+    <t>Freshwater (F)</t>
+  </si>
+  <si>
+    <t>Marine (M)</t>
+  </si>
+  <si>
+    <t>Subterranean (S)</t>
+  </si>
+  <si>
+    <t>Subterranean-Freshwater (SF)</t>
+  </si>
+  <si>
+    <t>Subterranean-Marine (SM)</t>
+  </si>
+  <si>
+    <t>Freshwater-Terrestrial (TF)</t>
+  </si>
+  <si>
+    <t>Marine-Terrestrial (MT)</t>
+  </si>
+  <si>
+    <t>Marine-Freshwater-Terrestrial (MFT)</t>
   </si>
 </sst>
 </file>
@@ -694,7 +706,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -705,7 +717,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1120,7 +1131,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>25</v>
@@ -1159,32 +1170,32 @@
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="8" t="s">
-        <v>176</v>
-      </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>177</v>
+      <c r="A13" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>178</v>
+      <c r="A14" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D14" s="2"/>
     </row>
@@ -1238,13 +1249,13 @@
   <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
     <col min="3" max="3" width="64" customWidth="1"/>
     <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1263,7 +1274,7 @@
         <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1271,16 +1282,16 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1288,16 +1299,16 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D3" t="s">
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1305,16 +1316,16 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D4" t="s">
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1322,10 +1333,10 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D5" t="s">
         <v>32</v>
@@ -1336,10 +1347,10 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
@@ -1350,34 +1361,43 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>182</v>
+      </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>183</v>
+      </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>184</v>
+      </c>
       <c r="C10" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D10" t="s">
         <v>37</v>
@@ -1385,7 +1405,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
@@ -1393,7 +1413,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s">
         <v>39</v>
@@ -1401,7 +1421,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D13" t="s">
         <v>40</v>
@@ -1409,7 +1429,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
@@ -1417,7 +1437,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D15" t="s">
         <v>42</v>
@@ -1425,7 +1445,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D16" t="s">
         <v>43</v>
@@ -1433,7 +1453,7 @@
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D17" t="s">
         <v>44</v>
@@ -1441,7 +1461,7 @@
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D18" t="s">
         <v>45</v>
@@ -1449,7 +1469,7 @@
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D19" t="s">
         <v>46</v>
@@ -1457,7 +1477,7 @@
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D20" t="s">
         <v>47</v>
@@ -1465,7 +1485,7 @@
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D21" t="s">
         <v>48</v>
@@ -1473,7 +1493,7 @@
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D22" t="s">
         <v>49</v>
@@ -1481,7 +1501,7 @@
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D23" t="s">
         <v>50</v>
@@ -1489,7 +1509,7 @@
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D24" t="s">
         <v>51</v>
@@ -1497,7 +1517,7 @@
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D25" t="s">
         <v>52</v>
@@ -1505,7 +1525,7 @@
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D26" t="s">
         <v>53</v>

--- a/indicators/rename-folder-after-your-indicator/fill_in_metadata_here_and_rename_the_file.xlsx
+++ b/indicators/rename-folder-after-your-indicator/fill_in_metadata_here_and_rename_the_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Github\ECindicators\indicators\rename-folder-after-your-indicator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BE52FD-2906-4094-9BD4-76FA1BA0D757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825D44ED-1232-4793-B497-51F87E14D845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{5774BAF6-AFFD-43CB-8AE5-DFBA2C21B702}"/>
   </bookViews>
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,7 +1222,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BF4D43D9-A982-4ECC-8F32-9627C08D5144}">
           <x14:formula1>
-            <xm:f>lookup!$B$2:$B$7</xm:f>
+            <xm:f>lookup!$B$2:$B$10</xm:f>
           </x14:formula1>
           <xm:sqref>B7</xm:sqref>
         </x14:dataValidation>
